--- a/biology/Botanique/Jardin_de_la_Magalone/Jardin_de_la_Magalone.xlsx
+++ b/biology/Botanique/Jardin_de_la_Magalone/Jardin_de_la_Magalone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin de la Magalone est un parc situé au 245 boulevard Michelet à Marseille dans le quartier de Sainte-Marguerite, dans le 9e arrondissement. Il s'agit de l'ancienne propriété d'un riche négociant Marseillais, dont la bastide, la petite chapelle et le jardin sont la propriété de la ville de Marseille depuis 1987.
-La villa a été construite vers 1690 sur les plans de Pierre Puget et est inscrite en 1948 aux monuments historiques[1].
+La villa a été construite vers 1690 sur les plans de Pierre Puget et est inscrite en 1948 aux monuments historiques.
 Elle accueille de nos jours une école de musique.
 Du jardin on peut apercevoir l'unité d'habitation construite en face par Le Corbusier.
 </t>
